--- a/py/forWork/doc/tmp.xlsx
+++ b/py/forWork/doc/tmp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="278">
   <si>
     <t>课节名称</t>
   </si>
@@ -39,49 +39,820 @@
     <t>学员</t>
   </si>
   <si>
-    <t>SU8-7孙小弟跑跑跑（下）</t>
-  </si>
-  <si>
-    <t>综合项目（下）.sb3</t>
-  </si>
-  <si>
-    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F196534281%2F756a49432d55c8f74f4aa961b2a5a730.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
-  </si>
-  <si>
-    <t>2023-05-28 12:48:08</t>
+    <t>SU8-2编曲大师（软硬件）</t>
+  </si>
+  <si>
+    <t>作业1-演奏音乐1.sb3</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238881772%2F3baa59dff16358539f83a376d5112286.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-11 20:48:31</t>
   </si>
   <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>61de130cca9ceb528fc113de</t>
-  </si>
-  <si>
-    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237795240%2F6cedecafe768db575fc2ed2982f51ae6.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
-  </si>
-  <si>
-    <t>2023-05-26 21:38:28</t>
-  </si>
-  <si>
-    <t>62ad2dda0329dc4a5c405eba</t>
-  </si>
-  <si>
-    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237110625%2F170df99cb8db9172f19b3730e9e876be.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
-  </si>
-  <si>
-    <t>2023-05-26 21:03:00</t>
-  </si>
-  <si>
-    <t>62ac7441fbf144058779a2bd</t>
-  </si>
-  <si>
-    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237418916%2F720f39ceb56e47bc45b44fafd9df4dbd.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
-  </si>
-  <si>
-    <t>2023-05-25 21:01:51</t>
-  </si>
-  <si>
-    <t>62a091f16cc6e85d52f2d890</t>
+    <t>62bfb32e2675634a1a3064cf</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F205291540%2F57a95cac0dd77a6fe2dd81a4d3096545.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-11 19:40:49</t>
+  </si>
+  <si>
+    <t>617008437f390575815f5f6e</t>
+  </si>
+  <si>
+    <t>2023-06-11 19:40:48</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238854113%2F7e890fa838c858b28638ab705d179e0a.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-11 14:31:18</t>
+  </si>
+  <si>
+    <t>62cba9705bb3ca54b4ad31fd</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F205291540%2F0e6a5814d2e740b7b0f9f00f1bfc5f70.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-11 11:00:18</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F236578325%2F4c3dcdf2c4f9ce8ceee3403f1f2b10c0.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-10 19:25:26</t>
+  </si>
+  <si>
+    <t>628b2747cf70475b6fad217f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238359810%2Fc9165bd5de10a4e1efa0b976f24ed245.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:02:46</t>
+  </si>
+  <si>
+    <t>62c8af8d0124b779d2615c19</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238860671%2Faa96407b4fd2e7c45cf6f1483439804a.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-04 21:52:17</t>
+  </si>
+  <si>
+    <t>Mac OS</t>
+  </si>
+  <si>
+    <t>62cd6d3b6ed9c513c76012ac</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238011986%2F82515315f2ff6585335d07e92b635e7a.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-04 16:47:09</t>
+  </si>
+  <si>
+    <t>62cbcb098bf4f4549971c544</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238011986%2Fafa21860f8ecc98c229bd3a885b583dc.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-04 16:37:29</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F196757839%2Fee974f6c64d43f0168c27740d2894b91.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-04 15:09:51</t>
+  </si>
+  <si>
+    <t>61e3c5784449842875d80ba9</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238922546%2Fc87b24237cdb73bc03b0a9e32dd20da5.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-03 21:37:26</t>
+  </si>
+  <si>
+    <t>62d13d55a6fded2a27fd4e3d</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238691351%2Fa5ea2ee76e9820bc6285f6dd1ece2e37.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-03 15:04:07</t>
+  </si>
+  <si>
+    <t>62bee3892675634a1a30612c</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238316039%2F608eb53be7f5c9475286d0e59f307998.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-03 13:51:55</t>
+  </si>
+  <si>
+    <t>62c67d899b6d496043b895de</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238420707%2F1585f7cc04882df5e2c27570a0aa73b1.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-02 21:07:41</t>
+  </si>
+  <si>
+    <t>62cc11479b6d496043b8c1bc</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238454214%2F85fee6a181de6c5256aa1713cdfb02af.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-02 20:38:39</t>
+  </si>
+  <si>
+    <t>62ce71de6ed9c513c7601d8f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238726503%2F036deb43f5c514dfc51dae030ed024a1.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-02 19:42:35</t>
+  </si>
+  <si>
+    <t>62c81d029b6d496043b8a58c</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238916182%2F006a61816b964dfb4bd6b6c43d772139.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-02 18:52:02</t>
+  </si>
+  <si>
+    <t>62d6a3dc32349970fe4c0db3</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238313919%2F640cfcf3001b5de784c11101478eddd7.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-06-02 18:14:53</t>
+  </si>
+  <si>
+    <t>62c794268bf4f454997180ed</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237915439%2F1e8d91cdaa571ff982345e4d80a563c3.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-28 18:09:29</t>
+  </si>
+  <si>
+    <t>62af31bd01fb2c3c96d5aad2</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238676411%2F3429628dcd50d00fff5bbcada8757204.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-21 21:18:50</t>
+  </si>
+  <si>
+    <t>62c54ddcb39f2e4ae0552936</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237920985%2F7222858a7263f25e0c24382f8fe9d194.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-21 17:52:13</t>
+  </si>
+  <si>
+    <t>62bb021184966e698666e2ff</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F201717403%2F9f413fae9fb47e7a3d46ed24c73cf563.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-21 15:44:04</t>
+  </si>
+  <si>
+    <t>60b9e26dfa5edd0db1698ef9</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238137485%2F2574eefd2c39032b6109be41de16bbdc.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-21 15:14:06</t>
+  </si>
+  <si>
+    <t>62cfe3391bd94e3a3c442691</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238712471%2F08a3b32cf6494823030ff650d829506f.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-20 17:26:22</t>
+  </si>
+  <si>
+    <t>62cb8eab44d3143c1ed26158</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238009465%2Fb16bd5e3ede7181c1d14fe1eda780ae3.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-20 12:35:53</t>
+  </si>
+  <si>
+    <t>62c3ba1a50cf964d2d0681e8</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238673255%2Fe76dc237e97cced0ccea0c69bbc72054.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-20 12:08:18</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>62c2a1562675634a1a307722</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F236600094%2F7da7a4cf1f0defb62ff7a7501613e4e3.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 23:13:07</t>
+  </si>
+  <si>
+    <t>6291b5304fd3c6055d990e46</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238356850%2F388c5f9566cc4d3e84cfd724f60f14c6.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 20:00:46</t>
+  </si>
+  <si>
+    <t>62beb6b82675634a1a305e8b</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237857032%2Ff3276fb15e697976ea498674431f9970.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 19:13:23</t>
+  </si>
+  <si>
+    <t>62b7c32d01fb2c3c96d5d242</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238145560%2F2ea3a6bbe13462aed35e62204a02e06e.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 19:09:19</t>
+  </si>
+  <si>
+    <t>62c3ac386d19a33f5a972427</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237857032%2F5b8b83ff129cc2d1f9f770586d3531ca.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 19:05:11</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237857032%2Fc84f4c55d6d3b3b58c7b77c1ebee254e.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 19:02:33</t>
+  </si>
+  <si>
+    <t>2023-05-19 19:02:32</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238190451%2F8c904359c79ee873a1eee5401d241d74.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-19 18:01:12</t>
+  </si>
+  <si>
+    <t>62bfb0a69798816af541b230</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237728302%2Ff862899e8083c5aa5240e89acc538b27.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-18 20:36:12</t>
+  </si>
+  <si>
+    <t>62b56299b018b825dcbff56e</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237904717%2F759f152b2d7419fbf7599c29b6c841e0.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-17 20:49:20</t>
+  </si>
+  <si>
+    <t>62ba6e0f459d4a39fc488b16</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F236877972%2Fbe557a87b4bf62cf7b9a5f5e150a78e1.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-14 18:56:15</t>
+  </si>
+  <si>
+    <t>6295cf0054a04c14c4216ba6</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237337712%2F44f530ac35225661759e1063f6251132.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:58:37</t>
+  </si>
+  <si>
+    <t>62b1d0f401fb2c3c96d5ba88</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237470060%2Fb3a397de0d0ee8b4f7c112aa1ad96217.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:02:23</t>
+  </si>
+  <si>
+    <t>62b565025f61725e7ea4fd5a</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237648908%2F67d84d718650a84ea510dd3cecd89570.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-13 13:58:14</t>
+  </si>
+  <si>
+    <t>62b5a43a01fb2c3c96d5cbc1</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237363544%2F51f3497287c7a9e0866af6b409f3172c.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-12 21:33:18</t>
+  </si>
+  <si>
+    <t>62b6f4600329dc4a5c40c81b</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237940823%2F22169d102ba717553d7fdb6d1e474eb9.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 16:38:14</t>
+  </si>
+  <si>
+    <t>62bb0683af0a9d409fa69e5f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F235475994%2F9cc3adb3fd6ee252c0d153195da44918.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 14:42:35</t>
+  </si>
+  <si>
+    <t>625d0565c3efcc5a812ed2fa</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237142249%2F144169120fa98d1ed22dd7123a75ecce.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 14:00:18</t>
+  </si>
+  <si>
+    <t>62bac414fbf144058779f426</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237142249%2F88a9b3e6b9dd1f4b2d5968bb6c25862e.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 13:59:08</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237806264%2F813f952c444290219616b4de0748b816.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 13:57:33</t>
+  </si>
+  <si>
+    <t>62bd52e584966e69866702b4</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237263605%2F55b3c316d690f6970666c04b1e32d4b2.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 10:21:45</t>
+  </si>
+  <si>
+    <t>62b43b9201fb2c3c96d5c455</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237175786%2F115e3c4fee2ce09ac270ebf11a8956de.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 09:59:13</t>
+  </si>
+  <si>
+    <t>62bc0fd50329dc4a5c40f86f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237263605%2F60559d5f5671cfbe49a3309f331e3fbd.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-07 09:35:31</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237608752%2F3a9b891305de35c2f97f13f5d7aee698.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-06 20:55:41</t>
+  </si>
+  <si>
+    <t>62bcd054af0a9d409fa6ad49</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237036571%2F8b6b0db4a4a65d69af68e4ff1dc93051.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-06 19:28:34</t>
+  </si>
+  <si>
+    <t>62bc0517b018b825dcc0140c</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237036571%2Ffa23095a329cc281400b1b6a9b3297e4.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-06 18:58:24</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F238806398%2Fb4bf051e292b59b5d0fe422085b9b1cd.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-05 21:04:21</t>
+  </si>
+  <si>
+    <t>62be418d2bb9ab702352fd7e</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237798292%2Fad4d41df2c0bf7a77d7633bcdc3d1f16.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-05 19:10:47</t>
+  </si>
+  <si>
+    <t>62bc16f55f61725e7ea53d73</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237398495%2F01ca1897cea18db49416f38f79794558.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-03 14:05:51</t>
+  </si>
+  <si>
+    <t>62a80aef991fb9538661d6f6</t>
+  </si>
+  <si>
+    <t>2023-05-03 14:05:03</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237873710%2F00f89728fd5093fbb694feb5b3f21a2c.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-03 13:23:55</t>
+  </si>
+  <si>
+    <t>62b1359b459d4a39fc48603c</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237873710%2Fa82a50e073ca310cc88618e5a9610c5c.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-03 13:20:17</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237873710%2F3624785bd3d0868c528b30103ffcda54.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-03 13:09:23</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237873710%2F0adcf32a1a2444d43f12fc21f1c907e7.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-05-03 12:18:32</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F198756710%2Feebc4058b866a7390fedf2e33a324ec2.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-28 21:11:21</t>
+  </si>
+  <si>
+    <t>622205bc1e50e62f5d83d3b9</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237647711%2F267828d7e25d3d91959ceff35b3864de.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-28 19:48:55</t>
+  </si>
+  <si>
+    <t>62b1b520fbf144058779c64c</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237647711%2Fd22895de59b6408b257fc04cb40c7bdb.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-28 19:47:15</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237256468%2Fa982f4f763ee7f283b8060bf7d601f5a.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-23 19:50:16</t>
+  </si>
+  <si>
+    <t>62bd63c620423a494d58ba64</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237700863%2F51293fa605cdfbbc990d464cbe68d5e1.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-23 12:42:47</t>
+  </si>
+  <si>
+    <t>62b41c7f95c7b95a42d1e494</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237479379%2Fa3822a8eb4dc5ec7b96322756f02f4f6.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 20:21:56</t>
+  </si>
+  <si>
+    <t>62a336f3763dd33f52ec7201</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F235622763%2Fa6515cd8302119ddcaaaab6107dc7621.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 16:22:35</t>
+  </si>
+  <si>
+    <t>6260c33bf5d80727bc728180</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237424422%2Fc9c742fbe24302d97d7eb53fddbf120e.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 14:57:14</t>
+  </si>
+  <si>
+    <t>62b454d4fbf144058779d491</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237668477%2F1b1a90250b7125ba9ce78adba24f0b70.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 14:43:41</t>
+  </si>
+  <si>
+    <t>62a3258e4d1e7b56cc792984</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237278446%2Fd97070a449f236e206bcbfc0cc6e708e.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 13:44:08</t>
+  </si>
+  <si>
+    <t>62b454f8a06e740435f33c30</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237998768%2F1e89f00a7f31ebc301d85aa90b07f19f.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 13:39:20</t>
+  </si>
+  <si>
+    <t>62ac6df75f61725e7ea4994e</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237238345%2Fdb1c66e198bc5962459994476f2759f2.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 11:13:12</t>
+  </si>
+  <si>
+    <t>62ac6df15f61725e7ea49936</t>
+  </si>
+  <si>
+    <t>2023-04-22 11:12:19</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237700863%2F6be6e6c94cb82d7d65948b16703173bc.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-22 07:49:59</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237345340%2F12e4f605f40a765e203ee1f706685038.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-21 20:07:57</t>
+  </si>
+  <si>
+    <t>62a1e1ca432694081850bbb9</t>
+  </si>
+  <si>
+    <t>2023-04-21 20:07:56</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237853975%2F1c5d16382f1afbc3ce52f9c61d4de4a5.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 21:21:02</t>
+  </si>
+  <si>
+    <t>62a69e0c4c9d55311bce82fd</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237853975%2F8f91d4b49e82dc8eac683c34b1a889c6.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 21:11:42</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237845512%2F584e740b9a83d31bb82b478741eb4035.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 19:46:15</t>
+  </si>
+  <si>
+    <t>62aa8db95f61725e7ea480fa</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237005882%2F5338d51022d027ee461ceb83da8752c9.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 18:50:23</t>
+  </si>
+  <si>
+    <t>62a324204de28e738ab450e4</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237860013%2F652a3633143502cb707d262dde2256af.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 13:59:10</t>
+  </si>
+  <si>
+    <t>62ab214295c7b95a42d1a8e9</t>
+  </si>
+  <si>
+    <t>2023-04-16 13:58:32</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237576206%2F98094dfc63e22c9690a437234ac1f6d9.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 10:32:51</t>
+  </si>
+  <si>
+    <t>62a6fe9e367c734e81995573</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237507374%2F9150d252f96b6823066cbcda0387f6b3.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 10:28:14</t>
+  </si>
+  <si>
+    <t>62a47c2d5f335b548f4bc1cc</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237507374%2F34797769e2872e48118c87b8bb18871c.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-16 10:00:22</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F236268600%2F14384ac8a07b4df45afcda4e05e8bf3c.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-15 21:39:05</t>
+  </si>
+  <si>
+    <t>628b7bfec012843c843614e9</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237366612%2F0fa4d6cb3b7f3b2f45024ceed48c084a.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-15 17:43:16</t>
+  </si>
+  <si>
+    <t>62aabff90329dc4a5c404184</t>
+  </si>
+  <si>
+    <t>2023-04-15 17:43:15</t>
+  </si>
+  <si>
+    <t>2023-04-15 17:40:34</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F236729544%2Fc9510ecb0a8e1a17c7ceb9c6cf1b1515.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-15 14:47:47</t>
+  </si>
+  <si>
+    <t>6281dfb17059b56ccab5af96</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237191866%2F07e94c54722b4938f52b74625a6149b9.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-15 10:21:32</t>
+  </si>
+  <si>
+    <t>62a89d35991fb9538661e402</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237376740%2Fe36f0475cf11d5c200f89b1d18049869.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-15 10:07:07</t>
+  </si>
+  <si>
+    <t>62a2f6334d1e7b56cc79265a</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237060640%2Fd0efb8e901d7447f340bdaf98ca84366.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 21:15:46</t>
+  </si>
+  <si>
+    <t>62a0739705beb84963e8c789</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F197895131%2F835b0992b47841a171ae3a464feb4806.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 21:09:08</t>
+  </si>
+  <si>
+    <t>6216498512f8c304d8542b1f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F197895131%2Fb43228569847075043c1f8dc1c2b69ef.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 21:08:10</t>
+  </si>
+  <si>
+    <t>2023-04-14 21:05:40</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237147854%2Fd5f533039f8f6adad7bdc21fad09c495.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 20:56:23</t>
+  </si>
+  <si>
+    <t>629dc2a5d9b2d06f6373a075</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237123016%2F38cbeddcdfde0d5fa4ac8c11d918edc6.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 20:55:08</t>
+  </si>
+  <si>
+    <t>62aa03ea84966e698666304f</t>
+  </si>
+  <si>
+    <t>https://www.xiguacity.cn/fe-study/teacher-scratch?projectId=https%3A%2F%2Fm.xiguacity.cn%2Fuser_projects_sb3%2F237332226%2Fcd260e26c22e403eb0f448043dc351e2.sb3&amp;compile=false&amp;aspectRatio=4%2F3</t>
+  </si>
+  <si>
+    <t>2023-04-14 18:40:37</t>
+  </si>
+  <si>
+    <t>62a322fd763dd33f52ec6e54</t>
   </si>
 </sst>
 </file>
@@ -94,10 +865,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,10 +1340,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,34 +1352,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,107 +1388,111 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1062,15 +1841,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.4545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.2909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.6090909090909" style="1" customWidth="1"/>
@@ -1147,16 +1926,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1167,17 +1946,2249 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
     </row>
   </sheetData>
   <sortState ref="C2:C56">

--- a/py/forWork/doc/tmp.xlsx
+++ b/py/forWork/doc/tmp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30050" windowHeight="13610"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="12">
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>电脑</t>
@@ -36,10 +36,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>没有编写让晶石随着小车相对移动的代码</t>
+      <t>没有使用事件</t>
     </r>
   </si>
   <si>
@@ -47,10 +47,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>将生成晶石的代码错误放在了判断语句外</t>
+      <t>完全没写</t>
     </r>
   </si>
   <si>
@@ -58,10 +58,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>没有编写小车接触晶石后重新生成晶石的代码</t>
+      <t>循环内缺少内容</t>
     </r>
   </si>
   <si>
@@ -69,10 +69,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>将能量加40写成了设为40</t>
+      <t>循环次序错误</t>
     </r>
   </si>
   <si>
@@ -80,10 +80,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>多写了让晶石能量设为0的代码</t>
+      <t>最后没有调用第六段</t>
     </r>
   </si>
   <si>
@@ -91,10 +91,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>完全没写代码</t>
+      <t>错写在音符角色中</t>
     </r>
   </si>
   <si>
@@ -102,10 +102,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>将晶石能量加40写成了倒计时加40</t>
+      <t>循环次数错误</t>
     </r>
   </si>
   <si>
@@ -113,10 +113,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>未编写在判断语句中晶石能量增加和生成晶石的代码</t>
+      <t>没有使用循环</t>
     </r>
   </si>
   <si>
@@ -124,10 +124,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>将晶石能量加40写成了加1</t>
+      <t>Windows</t>
     </r>
   </si>
   <si>
@@ -135,10 +135,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>启动时没有调用生成晶石的代码</t>
+      <t>Mac OS</t>
     </r>
   </si>
   <si>
@@ -146,153 +146,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>循环中没有调用生成晶石的代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将晶石能量加40写成了加5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有编写循环函数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将探险车错误写为小探险车</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成晶石代码书写后结构被破坏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完全没写生成晶石的代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成晶石代码中没有使用随机数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>循环中和启动时没有调用生成晶石的代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电脑</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将晶石y-探险车y写成晶石y-晶石x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有编写小车碰见晶石的代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将坐标相剪写为大于判断语句</t>
+      <t>多写了等待语句</t>
     </r>
   </si>
 </sst>
@@ -317,6 +174,19 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,31 +349,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9C99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -692,12 +544,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,32 +584,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -854,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,137 +707,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,25 +848,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1378,8 +1213,8 @@
   <sheetPr/>
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1407,1388 +1242,1544 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
+    <row r="6" s="1" customFormat="1" ht="14.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="3">
         <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1</v>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>2</v>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1</v>
+      <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="14.5" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="14.5" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>1</v>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" ht="14.5" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="14.5" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>10</v>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="14.5" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="14.5" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1</v>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="14.5" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="4">
-        <v>7</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" ht="14.5" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="3">
         <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="14.5" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" ht="14.5" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
+      <c r="B35" s="3">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="14.5" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="4">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="14.5" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="4">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>14</v>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" ht="14.5" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" ht="14.5" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="4">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>10</v>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" ht="14.5" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="4">
-        <v>2</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>4</v>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" ht="14.5" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4">
-        <v>7</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>15</v>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" ht="14.5" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" ht="14.5" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4">
-        <v>3</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1</v>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="14.5" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="4">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>10</v>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="14.5" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="4">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>17</v>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" ht="14.5" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>10</v>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" ht="14.5" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="4">
-        <v>6</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>11</v>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" ht="14.5" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="4">
-        <v>7</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>18</v>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" ht="14.5" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="4">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>11</v>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="14.5" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="4">
-        <v>9</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>17</v>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="14.5" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="9">
-        <v>0</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>17</v>
+    <row r="52" ht="14.5" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
+    <row r="53" ht="14.5" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="9">
-        <v>2</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>1</v>
+    <row r="54" ht="14.5" spans="1:6">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="s">
+    <row r="55" ht="14.5" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="9">
-        <v>3</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>10</v>
+    <row r="56" ht="14.5" spans="1:6">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="9">
-        <v>4</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>22</v>
+    <row r="57" ht="14.5" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="9">
+    <row r="58" ht="14.5" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="9">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>1</v>
+    <row r="59" ht="14.5" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="9">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>1</v>
+    <row r="60" ht="14.5" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="9">
-        <v>2</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>1</v>
+    <row r="61" ht="14.5" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="9">
+    <row r="62" ht="14.5" spans="1:6">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>2</v>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
+    <row r="63" ht="14.5" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="9">
-        <v>2</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>1</v>
+    <row r="64" ht="14.5" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9" t="s">
+    <row r="65" ht="14.5" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="9">
-        <v>3</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>10</v>
+    <row r="66" ht="14.5" spans="1:6">
+      <c r="A66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
+    <row r="67" ht="14.5" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="9">
-        <v>2</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>1</v>
+    <row r="68" ht="14.5" spans="1:6">
+      <c r="A68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="9">
-        <v>5</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>23</v>
+    <row r="69" ht="14.5" spans="1:6">
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>1</v>
+    <row r="70" ht="14.5" spans="1:6">
+      <c r="A70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="9">
-        <v>2</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>1</v>
+    <row r="71" ht="14.5" spans="1:6">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="9">
+    <row r="72" ht="14.5" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>2</v>
+    <row r="73" ht="14.5" spans="1:6">
+      <c r="A73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="9">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
+    <row r="74" ht="14.5" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="9">
-        <v>7</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>24</v>
+    <row r="75" ht="14.5" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="9">
-        <v>8</v>
-      </c>
-      <c r="C76" s="9" t="s">
+    <row r="76" ht="14.5" spans="1:6">
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
+    <row r="77" ht="14.5" spans="1:6">
+      <c r="A77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="9">
-        <v>8</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>6</v>
+    <row r="78" ht="14.5" spans="1:6">
+      <c r="A78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>1</v>
+    <row r="79" ht="14.5" spans="1:6">
+      <c r="A79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="9">
-        <v>2</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>1</v>
+    <row r="80" ht="14.5" spans="1:6">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="9">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>1</v>
+    <row r="81" ht="14.5" spans="1:6">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="9">
-        <v>8</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>6</v>
+    <row r="82" ht="14.5" spans="1:6">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="9">
-        <v>9</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>13</v>
+    <row r="83" ht="14.5" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="9">
+    <row r="84" ht="14.5" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3">
         <v>3</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>10</v>
+      <c r="C84" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
+    <row r="85" ht="14.5" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+    <row r="86" ht="14.5" spans="1:6">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+    <row r="87" ht="14.5" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+    <row r="88" ht="14.5" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+    <row r="89" ht="14.5" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+    <row r="90" ht="14.5" spans="1:6">
+      <c r="A90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+    <row r="91" ht="14.5" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+    <row r="92" ht="14.5" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+    <row r="93" ht="14.5" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+    <row r="94" ht="14.5" spans="1:6">
+      <c r="A94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+    <row r="95" ht="14.5" spans="1:6">
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+    <row r="96" ht="14.5" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+    <row r="97" ht="14.5" spans="1:6">
+      <c r="A97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+    <row r="98" ht="14.5" spans="1:6">
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+    <row r="99" ht="14.5" spans="1:6">
+      <c r="A99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+    <row r="100" ht="14.5" spans="1:6">
+      <c r="A100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+    <row r="101" ht="14.5" spans="1:6">
+      <c r="A101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+    <row r="102" ht="14.5" spans="1:6">
+      <c r="A102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+    <row r="103" ht="14.5" spans="1:6">
+      <c r="A103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+    <row r="104" ht="14.5" spans="1:6">
+      <c r="A104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+    <row r="105" ht="14.5" spans="1:6">
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+    <row r="106" ht="14.5" spans="1:6">
+      <c r="A106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+    <row r="107" ht="14.5" spans="1:6">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+    <row r="108" ht="14.5" spans="1:6">
+      <c r="A108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+    <row r="109" ht="14.5" spans="1:6">
+      <c r="A109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+    <row r="110" ht="14.5" spans="1:6">
+      <c r="A110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -2858,316 +2849,316 @@
       <c r="F120" s="2"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
     </row>
   </sheetData>
   <sortState ref="C2:C56">
